--- a/example_5_3/example_5_3_results.xlsx
+++ b/example_5_3/example_5_3_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>Parameter</t>
   </si>
@@ -96,10 +96,10 @@
     <t>ft</t>
   </si>
   <si>
-    <t>klbf*in</t>
-  </si>
-  <si>
-    <t>klbf/in</t>
+    <t>klbf * foot</t>
+  </si>
+  <si>
+    <t>klbf / foot</t>
   </si>
   <si>
     <t>in^2</t>
@@ -144,7 +144,19 @@
     <t>Reaction Y (klbf)</t>
   </si>
   <si>
-    <t>Moment Z (klbf*in)</t>
+    <t>Moment Z (klbf * foot)</t>
+  </si>
+  <si>
+    <t>0.0 meter</t>
+  </si>
+  <si>
+    <t>359.99999999999994 meter</t>
+  </si>
+  <si>
+    <t>719.9999999999999 meter</t>
+  </si>
+  <si>
+    <t>-0.004894581280788177 radian</t>
   </si>
   <si>
     <t>Member ID</t>
@@ -159,7 +171,7 @@
     <t>Fy (klbf)</t>
   </si>
   <si>
-    <t>Mz (klbf*in)</t>
+    <t>Mz (klbf * foot)</t>
   </si>
   <si>
     <t>System</t>
@@ -177,6 +189,33 @@
     <t>3 (j)</t>
   </si>
   <si>
+    <t>0.0 newton</t>
+  </si>
+  <si>
+    <t>24.25000000000002 newton</t>
+  </si>
+  <si>
+    <t>35.74999999999999 newton</t>
+  </si>
+  <si>
+    <t>37.58333333333336 newton</t>
+  </si>
+  <si>
+    <t>40.416666666666664 newton</t>
+  </si>
+  <si>
+    <t>92.50000000000009 meter * newton</t>
+  </si>
+  <si>
+    <t>-264.9999999999998 meter * newton</t>
+  </si>
+  <si>
+    <t>115.00000000000006 meter * newton</t>
+  </si>
+  <si>
+    <t>-247.49999999999974 meter * newton</t>
+  </si>
+  <si>
     <t>Global</t>
   </si>
   <si>
@@ -214,6 +253,15 @@
   </si>
   <si>
     <t>FRAME</t>
+  </si>
+  <si>
+    <t>29000.00000000001 pascal</t>
+  </si>
+  <si>
+    <t>10.000000000000002 meter ** 2</t>
+  </si>
+  <si>
+    <t>875.0000000000002 meter ** 4</t>
   </si>
   <si>
     <t>None</t>
@@ -299,10 +347,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>97024</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>166507</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>526097</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>187615</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -320,7 +368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6193024" cy="2643007"/>
+          <a:ext cx="7231697" cy="1711615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,11 +888,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -878,11 +926,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>359.9999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -899,8 +947,8 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>45</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -916,11 +964,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>719.9999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -965,22 +1013,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -988,19 +1036,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1008,19 +1056,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1028,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1040,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1048,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1060,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1068,19 +1116,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1088,19 +1136,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1108,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1120,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1128,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1140,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1158,37 +1206,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1196,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1204,26 +1252,26 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>359.9999999999999</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>29000.00000000001</v>
+      <c r="G2" t="s">
+        <v>78</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
-      <c r="J2">
-        <v>875.0000000000002</v>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1231,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1239,26 +1287,26 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>359.9999999999999</v>
+      <c r="E3" t="s">
+        <v>43</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>29000.00000000001</v>
+      <c r="G3" t="s">
+        <v>78</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>875.0000000000002</v>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/example_5_3/example_5_3_results.xlsx
+++ b/example_5_3/example_5_3_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Parameter</t>
   </si>
@@ -63,61 +63,79 @@
     <t>length</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>moment_of_inertía</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>moment</t>
-  </si>
-  <si>
     <t>distributed_load</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>moment_of_inertia</t>
-  </si>
-  <si>
-    <t>density</t>
-  </si>
-  <si>
-    <t>klbf</t>
-  </si>
-  <si>
-    <t>in</t>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>kip</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>in^2</t>
+  </si>
+  <si>
+    <t>in^3</t>
+  </si>
+  <si>
+    <t>in^4</t>
+  </si>
+  <si>
+    <t>klb/ft^3</t>
+  </si>
+  <si>
+    <t>kip*ft</t>
   </si>
   <si>
     <t>ksi</t>
   </si>
   <si>
-    <t>ft</t>
-  </si>
-  <si>
-    <t>klbf * foot</t>
-  </si>
-  <si>
-    <t>klbf / foot</t>
-  </si>
-  <si>
-    <t>in^2</t>
-  </si>
-  <si>
-    <t>in^4</t>
-  </si>
-  <si>
-    <t>klb/in^3</t>
+    <t>kip/ft</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>deg</t>
   </si>
   <si>
     <t>Node ID</t>
   </si>
   <si>
-    <t>X (in)</t>
-  </si>
-  <si>
-    <t>Y (in)</t>
+    <t>X (ft)</t>
+  </si>
+  <si>
+    <t>Y (ft)</t>
   </si>
   <si>
     <t>Restrained X</t>
@@ -129,34 +147,25 @@
     <t>Restrained Z</t>
   </si>
   <si>
-    <t>Displacement X (in)</t>
-  </si>
-  <si>
-    <t>Displacement Y (in)</t>
+    <t>Displacement X (ft)</t>
+  </si>
+  <si>
+    <t>Displacement Y (ft)</t>
   </si>
   <si>
     <t>Rotation Z (rad)</t>
   </si>
   <si>
-    <t>Reaction X (klbf)</t>
-  </si>
-  <si>
-    <t>Reaction Y (klbf)</t>
-  </si>
-  <si>
-    <t>Moment Z (klbf * foot)</t>
-  </si>
-  <si>
-    <t>0.0 meter</t>
-  </si>
-  <si>
-    <t>359.99999999999994 meter</t>
-  </si>
-  <si>
-    <t>719.9999999999999 meter</t>
-  </si>
-  <si>
-    <t>-0.004894581280788177 radian</t>
+    <t>Reaction X (kip)</t>
+  </si>
+  <si>
+    <t>Reaction Y (kip)</t>
+  </si>
+  <si>
+    <t>Moment Z (kip*ft)</t>
+  </si>
+  <si>
+    <t>-0.004894581280788174 dimensionless</t>
   </si>
   <si>
     <t>Member ID</t>
@@ -165,13 +174,13 @@
     <t>Node</t>
   </si>
   <si>
-    <t>Fx (klbf)</t>
-  </si>
-  <si>
-    <t>Fy (klbf)</t>
-  </si>
-  <si>
-    <t>Mz (klbf * foot)</t>
+    <t>Fx (kip)</t>
+  </si>
+  <si>
+    <t>Fy (kip)</t>
+  </si>
+  <si>
+    <t>Mz (kip*ft)</t>
   </si>
   <si>
     <t>System</t>
@@ -189,33 +198,6 @@
     <t>3 (j)</t>
   </si>
   <si>
-    <t>0.0 newton</t>
-  </si>
-  <si>
-    <t>24.25000000000002 newton</t>
-  </si>
-  <si>
-    <t>35.74999999999999 newton</t>
-  </si>
-  <si>
-    <t>37.58333333333336 newton</t>
-  </si>
-  <si>
-    <t>40.416666666666664 newton</t>
-  </si>
-  <si>
-    <t>92.50000000000009 meter * newton</t>
-  </si>
-  <si>
-    <t>-264.9999999999998 meter * newton</t>
-  </si>
-  <si>
-    <t>115.00000000000006 meter * newton</t>
-  </si>
-  <si>
-    <t>-247.49999999999974 meter * newton</t>
-  </si>
-  <si>
     <t>Global</t>
   </si>
   <si>
@@ -231,7 +213,7 @@
     <t>j-node</t>
   </si>
   <si>
-    <t>Length (in)</t>
+    <t>Length (ft)</t>
   </si>
   <si>
     <t>Material ID</t>
@@ -243,25 +225,16 @@
     <t>Section ID</t>
   </si>
   <si>
-    <t>Area (in²)</t>
-  </si>
-  <si>
-    <t>Ixx (in⁴)</t>
+    <t>Area (ft²)</t>
+  </si>
+  <si>
+    <t>Ixx (ft⁴)</t>
   </si>
   <si>
     <t>Hinges</t>
   </si>
   <si>
     <t>FRAME</t>
-  </si>
-  <si>
-    <t>29000.00000000001 pascal</t>
-  </si>
-  <si>
-    <t>10.000000000000002 meter ** 2</t>
-  </si>
-  <si>
-    <t>875.0000000000002 meter ** 4</t>
   </si>
   <si>
     <t>None</t>
@@ -347,10 +320,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>526097</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>187615</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18901</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>11744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -368,7 +341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7231697" cy="1711615"/>
+          <a:ext cx="7334101" cy="1726244"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -747,7 +720,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -766,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -774,7 +747,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -782,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -790,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -798,7 +771,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -806,7 +779,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -814,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -822,7 +795,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -830,7 +803,31 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -848,51 +845,51 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -926,11 +923,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -948,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -964,11 +961,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
+      <c r="B4">
+        <v>59.99999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1013,22 +1010,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1036,19 +1033,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>24.25000000000001</v>
+      </c>
+      <c r="E2">
+        <v>92.50000000000003</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1056,19 +1053,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>35.75000000000004</v>
+      </c>
+      <c r="E3">
+        <v>-265.0000000000003</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1076,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1088,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1096,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1108,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1116,19 +1113,19 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>37.58333333333336</v>
+      </c>
+      <c r="E6">
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
         <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1136,19 +1133,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>40.4166666666667</v>
+      </c>
+      <c r="E7">
+        <v>-247.5000000000003</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1156,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1176,7 +1173,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1188,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1206,37 +1203,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1244,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1252,26 +1249,26 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
+      <c r="E2">
+        <v>30</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>78</v>
+      <c r="G2">
+        <v>29000.00000000003</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s">
-        <v>80</v>
+      <c r="I2">
+        <v>0.06944444444444446</v>
+      </c>
+      <c r="J2">
+        <v>0.04219714506172841</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1279,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1287,26 +1284,26 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>43</v>
+      <c r="E3">
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>78</v>
+      <c r="G3">
+        <v>29000.00000000003</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
+      <c r="I3">
+        <v>0.06944444444444446</v>
+      </c>
+      <c r="J3">
+        <v>0.04219714506172841</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
